--- a/solow/accountdata.xlsx
+++ b/solow/accountdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8671A46-910D-A044-B6C0-F4CB2B540774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{10E3CFA2-554F-2D4C-A4DA-DC6C067ACCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800"/>
   </bookViews>
